--- a/biology/Médecine/Emil_Pfeiffer/Emil_Pfeiffer.xlsx
+++ b/biology/Médecine/Emil_Pfeiffer/Emil_Pfeiffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emil Pfeiffer (né le 1er mars 1846 à Wiesbaden et mort le 13 juillet 1921 Wiesbaden) est un médecin hospitalier et pédiatre allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie et travail</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pfeiffer fut élève au lycée de sa ville d'origine et fit des études de médecine à Bonn, Wurtzbourg et à Berlin, où il obtient son doctorat en 1869. Après avoir été médecin lors de la guerre franco-allemande de 1871, il ouvrit un cabinet médical dans sa ville d'origine.
 Il se fit un nom comme médecin de cure et s'intéressa de manière approfondie aux effets curatifs des eaux minérales des sources locales.
